--- a/va_facility_data_2025-02-20/Franklin County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Franklin%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Franklin County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Franklin%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf7ff6a6f4f9641fdb47456533fb53ec4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd015f6d62588464abd349d0411b08e3b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R593a3f63711543d897dfafea1ff48e03"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdfb23157fc524a138fb0438d9778b68d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2773b01b3e9f4954a7a7cfced7475285"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R38da1c61de20409e806469103d47e535"/>
   </x:sheets>
 </x:workbook>
 </file>
